--- a/biology/Zoologie/Aulacaspis_tubercularis/Aulacaspis_tubercularis.xlsx
+++ b/biology/Zoologie/Aulacaspis_tubercularis/Aulacaspis_tubercularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aulacaspis tubercularis (cochenille du manguier) est une espèce d'insectes hémiptères de la famille des Diaspididae, à répartition pantropicale.
-Cette cochenille polyphage admet de nombreuses espèces de plantes hôtes appartenant à diverses familles végétales. parmi les plantes cultivées, elle attaque notamment le papayer (Carica papaya), les agrumes (genre Citrus spp), le cocotier (Cocos nucifera), le cannellier (Cinnamomum verum), les courges (genre Cucurbita spp.), le laurier noble (Laurus nobilis), le manguier (Mangifera indica), l'avocatier (Persea americana), le gingembre (Zingiber officinale)[1], mais surtout considérée comme un ravageur des cultures de manguier.
+Cette cochenille polyphage admet de nombreuses espèces de plantes hôtes appartenant à diverses familles végétales. parmi les plantes cultivées, elle attaque notamment le papayer (Carica papaya), les agrumes (genre Citrus spp), le cocotier (Cocos nucifera), le cannellier (Cinnamomum verum), les courges (genre Cucurbita spp.), le laurier noble (Laurus nobilis), le manguier (Mangifera indica), l'avocatier (Persea americana), le gingembre (Zingiber officinale), mais surtout considérée comme un ravageur des cultures de manguier.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (14 octobre 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (14 octobre 2013) :
 Aulacaspis cinnamomi Newstead, 1908
 Aulacaspis cinnamomi mangiferae Sasscer, 1912
 Aulacaspis mangiferae MacGillivray, 1921
@@ -553,7 +567,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition d'Aulacaspis tubercularis s'étend sur une grande partie des régions tropicales et subtropicales.
 Cette espèce se rencontre notamment
@@ -561,7 +577,7 @@
 en Asie : Inde, Indonésie, Irak, Malaisie, Pakistan, Sri Lanka, Taïwan,
 en Océanie : Vanuatu,
 dans les Antilles : Antigua, Barbade, , Porto Rico, République dominicaine, Trinidad,
-en Amérique du Sud : Brésil, Colombie, Guyana, Surinam, Venezuela[3].
+en Amérique du Sud : Brésil, Colombie, Guyana, Surinam, Venezuela.
 </t>
         </is>
       </c>
